--- a/tests/advanced/randomized_tests/b02.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b02.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>9.465962648391724E-05</v>
+        <v>8.888868615031242E-05</v>
       </c>
       <c r="E2">
-        <v>0.01950306026265025</v>
+        <v>0.01573287695646286</v>
       </c>
       <c r="F2">
         <v>30</v>
       </c>
       <c r="G2">
-        <v>0.002043119631707668</v>
+        <v>0.001481673214584589</v>
       </c>
       <c r="H2">
-        <v>0.002903945744037628</v>
+        <v>0.002649994101375341</v>
       </c>
       <c r="I2">
-        <v>0.00402700062841177</v>
+        <v>0.004090444650501013</v>
       </c>
       <c r="J2">
-        <v>0.007981719449162483</v>
+        <v>0.005886571016162634</v>
       </c>
       <c r="K2">
-        <v>0.0007402161136269569</v>
+        <v>0.0004930472932755947</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>0.001294533722102642</v>
+        <v>0.001206391956657171</v>
       </c>
       <c r="E3">
-        <v>0.01554971840232611</v>
+        <v>0.01717302855104208</v>
       </c>
       <c r="F3">
         <v>30</v>
       </c>
       <c r="G3">
-        <v>0.001418580301105976</v>
+        <v>0.001531261950731277</v>
       </c>
       <c r="H3">
-        <v>0.003453960176557302</v>
+        <v>0.003925590310245752</v>
       </c>
       <c r="I3">
-        <v>0.003046107012778521</v>
+        <v>0.003662615548819304</v>
       </c>
       <c r="J3">
-        <v>0.005839073099195957</v>
+        <v>0.006333271041512489</v>
       </c>
       <c r="K3">
-        <v>0.0005589229986071587</v>
+        <v>0.0005031684413552284</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>0.001723458990454674</v>
+        <v>0.0009107915684580803</v>
       </c>
       <c r="E4">
-        <v>0.02104788972064853</v>
+        <v>0.01791709661483765</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
       <c r="G4">
-        <v>0.001880615949630737</v>
+        <v>0.001692014280706644</v>
       </c>
       <c r="H4">
-        <v>0.004493215121328831</v>
+        <v>0.003471673931926489</v>
       </c>
       <c r="I4">
-        <v>0.00434500677511096</v>
+        <v>0.004269152414053679</v>
       </c>
       <c r="J4">
-        <v>0.007880935445427895</v>
+        <v>0.006608132738620043</v>
       </c>
       <c r="K4">
-        <v>0.0007475735619664192</v>
+        <v>0.0005637500435113907</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>0.0001455266028642654</v>
+        <v>0.0004184572026133537</v>
       </c>
       <c r="E5">
-        <v>0.01984184514731169</v>
+        <v>0.01623778697103262</v>
       </c>
       <c r="F5">
         <v>30</v>
       </c>
       <c r="G5">
-        <v>0.001946566626429558</v>
+        <v>0.001558565068989992</v>
       </c>
       <c r="H5">
-        <v>0.002960296347737312</v>
+        <v>0.002985695842653513</v>
       </c>
       <c r="I5">
-        <v>0.004841885529458523</v>
+        <v>0.004140559118241072</v>
       </c>
       <c r="J5">
-        <v>0.007568549364805222</v>
+        <v>0.005899178795516491</v>
       </c>
       <c r="K5">
-        <v>0.0007093297317624092</v>
+        <v>0.0005072555504739285</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>55</v>
       </c>
       <c r="D6">
-        <v>0.001267455518245697</v>
+        <v>0.001270269509404898</v>
       </c>
       <c r="E6">
-        <v>0.03111312398687005</v>
+        <v>0.03900506906211376</v>
       </c>
       <c r="F6">
         <v>55</v>
       </c>
       <c r="G6">
-        <v>0.002206158824265003</v>
+        <v>0.002205895259976387</v>
       </c>
       <c r="H6">
-        <v>0.005084794946014881</v>
+        <v>0.005577171687036753</v>
       </c>
       <c r="I6">
-        <v>0.01348326914012432</v>
+        <v>0.02243523253127933</v>
       </c>
       <c r="J6">
-        <v>0.007090936414897442</v>
+        <v>0.005772464442998171</v>
       </c>
       <c r="K6">
-        <v>0.0009373137727379799</v>
+        <v>0.0008078101091086864</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>9.465962648391724E-05</v>
+        <v>8.888868615031242E-05</v>
       </c>
       <c r="E8">
-        <v>0.01950306026265025</v>
+        <v>0.01573287695646286</v>
       </c>
       <c r="F8">
         <v>30</v>
       </c>
       <c r="G8">
-        <v>0.002043119631707668</v>
+        <v>0.001481673214584589</v>
       </c>
       <c r="H8">
-        <v>0.002903945744037628</v>
+        <v>0.002649994101375341</v>
       </c>
       <c r="I8">
-        <v>0.00402700062841177</v>
+        <v>0.004090444650501013</v>
       </c>
       <c r="J8">
-        <v>0.007981719449162483</v>
+        <v>0.005886571016162634</v>
       </c>
       <c r="K8">
-        <v>0.0007402161136269569</v>
+        <v>0.0004930472932755947</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>0.001294533722102642</v>
+        <v>0.001206391956657171</v>
       </c>
       <c r="E9">
-        <v>0.01554971840232611</v>
+        <v>0.01717302855104208</v>
       </c>
       <c r="F9">
         <v>30</v>
       </c>
       <c r="G9">
-        <v>0.001418580301105976</v>
+        <v>0.001531261950731277</v>
       </c>
       <c r="H9">
-        <v>0.003453960176557302</v>
+        <v>0.003925590310245752</v>
       </c>
       <c r="I9">
-        <v>0.003046107012778521</v>
+        <v>0.003662615548819304</v>
       </c>
       <c r="J9">
-        <v>0.005839073099195957</v>
+        <v>0.006333271041512489</v>
       </c>
       <c r="K9">
-        <v>0.0005589229986071587</v>
+        <v>0.0005031684413552284</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>0.001723458990454674</v>
+        <v>0.0009107915684580803</v>
       </c>
       <c r="E10">
-        <v>0.02104788972064853</v>
+        <v>0.01791709661483765</v>
       </c>
       <c r="F10">
         <v>30</v>
       </c>
       <c r="G10">
-        <v>0.001880615949630737</v>
+        <v>0.001692014280706644</v>
       </c>
       <c r="H10">
-        <v>0.004493215121328831</v>
+        <v>0.003471673931926489</v>
       </c>
       <c r="I10">
-        <v>0.00434500677511096</v>
+        <v>0.004269152414053679</v>
       </c>
       <c r="J10">
-        <v>0.007880935445427895</v>
+        <v>0.006608132738620043</v>
       </c>
       <c r="K10">
-        <v>0.0007475735619664192</v>
+        <v>0.0005637500435113907</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>0.0001455266028642654</v>
+        <v>0.0004184572026133537</v>
       </c>
       <c r="E11">
-        <v>0.01984184514731169</v>
+        <v>0.01623778697103262</v>
       </c>
       <c r="F11">
         <v>30</v>
       </c>
       <c r="G11">
-        <v>0.001946566626429558</v>
+        <v>0.001558565068989992</v>
       </c>
       <c r="H11">
-        <v>0.002960296347737312</v>
+        <v>0.002985695842653513</v>
       </c>
       <c r="I11">
-        <v>0.004841885529458523</v>
+        <v>0.004140559118241072</v>
       </c>
       <c r="J11">
-        <v>0.007568549364805222</v>
+        <v>0.005899178795516491</v>
       </c>
       <c r="K11">
-        <v>0.0007093297317624092</v>
+        <v>0.0005072555504739285</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>55</v>
       </c>
       <c r="D12">
-        <v>0.001267455518245697</v>
+        <v>0.001270269509404898</v>
       </c>
       <c r="E12">
-        <v>0.03111312398687005</v>
+        <v>0.03900506906211376</v>
       </c>
       <c r="F12">
         <v>55</v>
       </c>
       <c r="G12">
-        <v>0.002206158824265003</v>
+        <v>0.002205895259976387</v>
       </c>
       <c r="H12">
-        <v>0.005084794946014881</v>
+        <v>0.005577171687036753</v>
       </c>
       <c r="I12">
-        <v>0.01348326914012432</v>
+        <v>0.02243523253127933</v>
       </c>
       <c r="J12">
-        <v>0.007090936414897442</v>
+        <v>0.005772464442998171</v>
       </c>
       <c r="K12">
-        <v>0.0009373137727379799</v>
+        <v>0.0008078101091086864</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b02.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b02.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>97</v>
       </c>
       <c r="D2">
-        <v>97</v>
-      </c>
-      <c r="E2">
-        <v>97</v>
-      </c>
-      <c r="F2">
-        <v>97</v>
-      </c>
-      <c r="G2">
-        <v>97</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D2">
-        <v>8.888868615031242E-05</v>
+        <v>0.002134872134774923</v>
       </c>
       <c r="E2">
-        <v>0.01573287695646286</v>
+        <v>0.03247870411723852</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="G2">
-        <v>0.001481673214584589</v>
+        <v>0.003574817907065153</v>
       </c>
       <c r="H2">
-        <v>0.002649994101375341</v>
+        <v>0.007381543982774019</v>
       </c>
       <c r="I2">
-        <v>0.004090444650501013</v>
+        <v>0.009440646506845951</v>
       </c>
       <c r="J2">
-        <v>0.005886571016162634</v>
+        <v>0.006972729694098234</v>
       </c>
       <c r="K2">
-        <v>0.0004930472932755947</v>
+        <v>0.002077402547001839</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>0.001206391956657171</v>
+        <v>650</v>
       </c>
       <c r="E3">
-        <v>0.01717302855104208</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>0.001531261950731277</v>
-      </c>
-      <c r="H3">
-        <v>0.003925590310245752</v>
-      </c>
-      <c r="I3">
-        <v>0.003662615548819304</v>
-      </c>
-      <c r="J3">
-        <v>0.006333271041512489</v>
-      </c>
-      <c r="K3">
-        <v>0.0005031684413552284</v>
+        <v>0.0078280009329319</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>0.0009107915684580803</v>
+        <v>0.002134872134774923</v>
       </c>
       <c r="E4">
-        <v>0.01791709661483765</v>
+        <v>0.03247870411723852</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="G4">
-        <v>0.001692014280706644</v>
+        <v>0.003574817907065153</v>
       </c>
       <c r="H4">
-        <v>0.003471673931926489</v>
+        <v>0.007381543982774019</v>
       </c>
       <c r="I4">
-        <v>0.004269152414053679</v>
+        <v>0.009440646506845951</v>
       </c>
       <c r="J4">
-        <v>0.006608132738620043</v>
+        <v>0.006972729694098234</v>
       </c>
       <c r="K4">
-        <v>0.0005637500435113907</v>
+        <v>0.002077402547001839</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>0.0004184572026133537</v>
+        <v>650</v>
       </c>
       <c r="E5">
-        <v>0.01623778697103262</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>0.001558565068989992</v>
-      </c>
-      <c r="H5">
-        <v>0.002985695842653513</v>
-      </c>
-      <c r="I5">
-        <v>0.004140559118241072</v>
-      </c>
-      <c r="J5">
-        <v>0.005899178795516491</v>
-      </c>
-      <c r="K5">
-        <v>0.0005072555504739285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>0.001270269509404898</v>
-      </c>
-      <c r="E6">
-        <v>0.03900506906211376</v>
-      </c>
-      <c r="F6">
-        <v>55</v>
-      </c>
-      <c r="G6">
-        <v>0.002205895259976387</v>
-      </c>
-      <c r="H6">
-        <v>0.005577171687036753</v>
-      </c>
-      <c r="I6">
-        <v>0.02243523253127933</v>
-      </c>
-      <c r="J6">
-        <v>0.005772464442998171</v>
-      </c>
-      <c r="K6">
-        <v>0.0008078101091086864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>650</v>
-      </c>
-      <c r="E7">
-        <v>0.0078280009329319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>8.888868615031242E-05</v>
-      </c>
-      <c r="E8">
-        <v>0.01573287695646286</v>
-      </c>
-      <c r="F8">
-        <v>30</v>
-      </c>
-      <c r="G8">
-        <v>0.001481673214584589</v>
-      </c>
-      <c r="H8">
-        <v>0.002649994101375341</v>
-      </c>
-      <c r="I8">
-        <v>0.004090444650501013</v>
-      </c>
-      <c r="J8">
-        <v>0.005886571016162634</v>
-      </c>
-      <c r="K8">
-        <v>0.0004930472932755947</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>0.001206391956657171</v>
-      </c>
-      <c r="E9">
-        <v>0.01717302855104208</v>
-      </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>0.001531261950731277</v>
-      </c>
-      <c r="H9">
-        <v>0.003925590310245752</v>
-      </c>
-      <c r="I9">
-        <v>0.003662615548819304</v>
-      </c>
-      <c r="J9">
-        <v>0.006333271041512489</v>
-      </c>
-      <c r="K9">
-        <v>0.0005031684413552284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>0.0009107915684580803</v>
-      </c>
-      <c r="E10">
-        <v>0.01791709661483765</v>
-      </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>0.001692014280706644</v>
-      </c>
-      <c r="H10">
-        <v>0.003471673931926489</v>
-      </c>
-      <c r="I10">
-        <v>0.004269152414053679</v>
-      </c>
-      <c r="J10">
-        <v>0.006608132738620043</v>
-      </c>
-      <c r="K10">
-        <v>0.0005637500435113907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <v>0.0004184572026133537</v>
-      </c>
-      <c r="E11">
-        <v>0.01623778697103262</v>
-      </c>
-      <c r="F11">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>0.001558565068989992</v>
-      </c>
-      <c r="H11">
-        <v>0.002985695842653513</v>
-      </c>
-      <c r="I11">
-        <v>0.004140559118241072</v>
-      </c>
-      <c r="J11">
-        <v>0.005899178795516491</v>
-      </c>
-      <c r="K11">
-        <v>0.0005072555504739285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>55</v>
-      </c>
-      <c r="D12">
-        <v>0.001270269509404898</v>
-      </c>
-      <c r="E12">
-        <v>0.03900506906211376</v>
-      </c>
-      <c r="F12">
-        <v>55</v>
-      </c>
-      <c r="G12">
-        <v>0.002205895259976387</v>
-      </c>
-      <c r="H12">
-        <v>0.005577171687036753</v>
-      </c>
-      <c r="I12">
-        <v>0.02243523253127933</v>
-      </c>
-      <c r="J12">
-        <v>0.005772464442998171</v>
-      </c>
-      <c r="K12">
-        <v>0.0008078101091086864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>650</v>
-      </c>
-      <c r="E13">
         <v>0.0078280009329319</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b02.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b02.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>97</v>
       </c>
       <c r="D2">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>97</v>
+      </c>
+      <c r="F2">
+        <v>97</v>
+      </c>
+      <c r="G2">
+        <v>97</v>
+      </c>
+      <c r="H2">
+        <v>97</v>
+      </c>
+      <c r="I2">
+        <v>97</v>
+      </c>
+      <c r="J2">
+        <v>97</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>0.002134872134774923</v>
+        <v>0.0001472802832722664</v>
       </c>
       <c r="E2">
-        <v>0.03247870411723852</v>
+        <v>0.01240529725328088</v>
       </c>
       <c r="F2">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>0.003574817907065153</v>
+        <v>0.001487051136791706</v>
       </c>
       <c r="H2">
-        <v>0.007381543982774019</v>
+        <v>0.002209026366472244</v>
       </c>
       <c r="I2">
-        <v>0.009440646506845951</v>
+        <v>0.002646284177899361</v>
       </c>
       <c r="J2">
-        <v>0.006972729694098234</v>
+        <v>0.00402574660256505</v>
       </c>
       <c r="K2">
-        <v>0.002077402547001839</v>
+        <v>0.0008734576404094696</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>650</v>
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>0.002273059915751219</v>
       </c>
       <c r="E3">
-        <v>0.0078280009329319</v>
+        <v>0.03520111506804824</v>
+      </c>
+      <c r="F3">
+        <v>79</v>
+      </c>
+      <c r="G3">
+        <v>0.003830139990895987</v>
+      </c>
+      <c r="H3">
+        <v>0.00846954109147191</v>
+      </c>
+      <c r="I3">
+        <v>0.009928208310157061</v>
+      </c>
+      <c r="J3">
+        <v>0.007474723272025585</v>
+      </c>
+      <c r="K3">
+        <v>0.002249083947390318</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>0.002134872134774923</v>
+        <v>0.001005173195153475</v>
       </c>
       <c r="E4">
-        <v>0.03247870411723852</v>
+        <v>0.01496815215796232</v>
       </c>
       <c r="F4">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>0.003574817907065153</v>
+        <v>0.001699878368526697</v>
       </c>
       <c r="H4">
-        <v>0.007381543982774019</v>
+        <v>0.003169817849993706</v>
       </c>
       <c r="I4">
-        <v>0.009440646506845951</v>
+        <v>0.00308334780856967</v>
       </c>
       <c r="J4">
-        <v>0.006972729694098234</v>
+        <v>0.004974350333213806</v>
       </c>
       <c r="K4">
-        <v>0.002077402547001839</v>
+        <v>0.0009091757237911224</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0.0001180311664938927</v>
+      </c>
+      <c r="E5">
+        <v>0.01806562719866633</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>0.002534626983106136</v>
+      </c>
+      <c r="H5">
+        <v>0.003177977632731199</v>
+      </c>
+      <c r="I5">
+        <v>0.004030399490147829</v>
+      </c>
+      <c r="J5">
+        <v>0.005677055567502975</v>
+      </c>
+      <c r="K5">
+        <v>0.001198644284158945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>0.0002745212987065315</v>
+      </c>
+      <c r="E6">
+        <v>0.02914204215630889</v>
+      </c>
+      <c r="F6">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>0.00266487430781126</v>
+      </c>
+      <c r="H6">
+        <v>0.004490027669817209</v>
+      </c>
+      <c r="I6">
+        <v>0.01511022448539734</v>
+      </c>
+      <c r="J6">
+        <v>0.002772921230643988</v>
+      </c>
+      <c r="K6">
+        <v>0.001756099052727222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>218</v>
+      </c>
+      <c r="D7">
+        <v>0.005475955549627542</v>
+      </c>
+      <c r="E7">
+        <v>0.131782409735024</v>
+      </c>
+      <c r="F7">
+        <v>218</v>
+      </c>
+      <c r="G7">
+        <v>0.01031870860606432</v>
+      </c>
+      <c r="H7">
+        <v>0.02105499384924769</v>
+      </c>
+      <c r="I7">
+        <v>0.07519185123965144</v>
+      </c>
+      <c r="J7">
+        <v>0.008845580276101828</v>
+      </c>
+      <c r="K7">
+        <v>0.006888275034725666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>0.002007491886615753</v>
+      </c>
+      <c r="E8">
+        <v>0.0381102068349719</v>
+      </c>
+      <c r="F8">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>0.003290676511824131</v>
+      </c>
+      <c r="H8">
+        <v>0.007543187122792006</v>
+      </c>
+      <c r="I8">
+        <v>0.01649512071162462</v>
+      </c>
+      <c r="J8">
+        <v>0.005744618363678455</v>
+      </c>
+      <c r="K8">
+        <v>0.002128115855157375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>0.0003503481857478619</v>
+      </c>
+      <c r="E9">
+        <v>0.03004404110834002</v>
+      </c>
+      <c r="F9">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <v>0.002876609563827515</v>
+      </c>
+      <c r="H9">
+        <v>0.004568547010421753</v>
+      </c>
+      <c r="I9">
+        <v>0.01510550687089562</v>
+      </c>
+      <c r="J9">
+        <v>0.002992115449160337</v>
+      </c>
+      <c r="K9">
+        <v>0.002073736395686865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>650</v>
       </c>
-      <c r="E5">
+      <c r="E10">
+        <v>0.0078280009329319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>0.0001472802832722664</v>
+      </c>
+      <c r="E11">
+        <v>0.01240529725328088</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>0.001487051136791706</v>
+      </c>
+      <c r="H11">
+        <v>0.002209026366472244</v>
+      </c>
+      <c r="I11">
+        <v>0.002646284177899361</v>
+      </c>
+      <c r="J11">
+        <v>0.00402574660256505</v>
+      </c>
+      <c r="K11">
+        <v>0.0008734576404094696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>79</v>
+      </c>
+      <c r="D12">
+        <v>0.002273059915751219</v>
+      </c>
+      <c r="E12">
+        <v>0.03520111506804824</v>
+      </c>
+      <c r="F12">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>0.003830139990895987</v>
+      </c>
+      <c r="H12">
+        <v>0.00846954109147191</v>
+      </c>
+      <c r="I12">
+        <v>0.009928208310157061</v>
+      </c>
+      <c r="J12">
+        <v>0.007474723272025585</v>
+      </c>
+      <c r="K12">
+        <v>0.002249083947390318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>0.001005173195153475</v>
+      </c>
+      <c r="E13">
+        <v>0.01496815215796232</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>0.001699878368526697</v>
+      </c>
+      <c r="H13">
+        <v>0.003169817849993706</v>
+      </c>
+      <c r="I13">
+        <v>0.00308334780856967</v>
+      </c>
+      <c r="J13">
+        <v>0.004974350333213806</v>
+      </c>
+      <c r="K13">
+        <v>0.0009091757237911224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>0.0001180311664938927</v>
+      </c>
+      <c r="E14">
+        <v>0.01806562719866633</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>0.002534626983106136</v>
+      </c>
+      <c r="H14">
+        <v>0.003177977632731199</v>
+      </c>
+      <c r="I14">
+        <v>0.004030399490147829</v>
+      </c>
+      <c r="J14">
+        <v>0.005677055567502975</v>
+      </c>
+      <c r="K14">
+        <v>0.001198644284158945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>0.0002745212987065315</v>
+      </c>
+      <c r="E15">
+        <v>0.02914204215630889</v>
+      </c>
+      <c r="F15">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>0.00266487430781126</v>
+      </c>
+      <c r="H15">
+        <v>0.004490027669817209</v>
+      </c>
+      <c r="I15">
+        <v>0.01511022448539734</v>
+      </c>
+      <c r="J15">
+        <v>0.002772921230643988</v>
+      </c>
+      <c r="K15">
+        <v>0.001756099052727222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>218</v>
+      </c>
+      <c r="D16">
+        <v>0.005475955549627542</v>
+      </c>
+      <c r="E16">
+        <v>0.131782409735024</v>
+      </c>
+      <c r="F16">
+        <v>218</v>
+      </c>
+      <c r="G16">
+        <v>0.01031870860606432</v>
+      </c>
+      <c r="H16">
+        <v>0.02105499384924769</v>
+      </c>
+      <c r="I16">
+        <v>0.07519185123965144</v>
+      </c>
+      <c r="J16">
+        <v>0.008845580276101828</v>
+      </c>
+      <c r="K16">
+        <v>0.006888275034725666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>0.002007491886615753</v>
+      </c>
+      <c r="E17">
+        <v>0.0381102068349719</v>
+      </c>
+      <c r="F17">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>0.003290676511824131</v>
+      </c>
+      <c r="H17">
+        <v>0.007543187122792006</v>
+      </c>
+      <c r="I17">
+        <v>0.01649512071162462</v>
+      </c>
+      <c r="J17">
+        <v>0.005744618363678455</v>
+      </c>
+      <c r="K17">
+        <v>0.002128115855157375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>0.0003503481857478619</v>
+      </c>
+      <c r="E18">
+        <v>0.03004404110834002</v>
+      </c>
+      <c r="F18">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>0.002876609563827515</v>
+      </c>
+      <c r="H18">
+        <v>0.004568547010421753</v>
+      </c>
+      <c r="I18">
+        <v>0.01510550687089562</v>
+      </c>
+      <c r="J18">
+        <v>0.002992115449160337</v>
+      </c>
+      <c r="K18">
+        <v>0.002073736395686865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>650</v>
+      </c>
+      <c r="E19">
         <v>0.0078280009329319</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
